--- a/biology/Mycologie/Kuehneromyces/Kuehneromyces.xlsx
+++ b/biology/Mycologie/Kuehneromyces/Kuehneromyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kuehneromyces est un genre de champignons basydiomycètes de la famille des Strophariaceae. 
 Les espèces du genre sont grégaires et ses individus connés, cespiteux et fasciculés. L'espèce la plus connue est une espèce européenne, Kuehneromyces mutabilis, la pholiote changeante, excellent comestible, mais dont la morphologie proche de celle de Galerina marginata, champignon mortel qui contient les mêmes amatoxines mortelles que l'Amanite phalloïde, doit inciter les récolteurs à être très prudents.[réf. nécessaire]
-Selon Index Fungorum                                      (30 mai 2013)[1], ce genre n’est pas valide, et il est synonyme du genre Pholiota.
+Selon Index Fungorum                                      (30 mai 2013), ce genre n’est pas valide, et il est synonyme du genre Pholiota.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chapeau de 1 à 8 cm, hémisphérique devenant convexe puis s'étalant rapidement. Les espèces sont souvent mamelonnées.
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (16 janvier 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (16 janvier 2023) :
 Kuehneromyces alpinus A.H. Sm., 1957
 Kuehneromyces brunneoalbescens (Y.S. Chang &amp; A.K. Mills) J.A. Cooper, 2014
 Kuehneromyces castaneiceps Singer, 1969
